--- a/Salary.xlsx
+++ b/Salary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
   <si>
     <t>ALISSA</t>
   </si>
@@ -109,6 +109,24 @@
   <si>
     <t>10%</t>
   </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>Cash Without Tip</t>
+  </si>
+  <si>
+    <t>Check 2</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>Cash Payment</t>
+  </si>
+  <si>
+    <t>Total payment</t>
+  </si>
 </sst>
 </file>
 
@@ -155,7 +173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BG50"/>
+  <dimension ref="A1:BG58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3269,13 +3287,167 @@
       </c>
     </row>
     <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <f>C20*0.5</f>
+      </c>
+      <c r="I23">
+        <f>800</f>
+      </c>
+      <c r="L23">
+        <f>L19*0.6</f>
+      </c>
+      <c r="O23">
+        <f>O20*60</f>
+      </c>
+      <c r="R23">
+        <f>R19*0.6</f>
+      </c>
+      <c r="U23">
+        <f>500</f>
+      </c>
+      <c r="X23">
+        <f>X19*0.6</f>
+      </c>
+      <c r="AA23">
+        <f>AA19*0.6</f>
+      </c>
+      <c r="AD23">
+        <f>500</f>
+      </c>
+      <c r="AJ23">
+        <f>800</f>
+      </c>
+      <c r="AM23">
+        <f>900</f>
+      </c>
+      <c r="AP23">
+        <f>AP20*0.6</f>
+      </c>
+      <c r="BB23">
+        <f>BB20*0.6</f>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <f>C20-C23</f>
+      </c>
+      <c r="I24">
+        <f>I28-I27</f>
+      </c>
+      <c r="L24">
+        <f>L19-L23</f>
+      </c>
+      <c r="O24">
+        <f>O20-O23</f>
+      </c>
+      <c r="R24">
+        <f>R19-R23</f>
+      </c>
+      <c r="X24">
+        <f>X19-X23</f>
+      </c>
+      <c r="AA24">
+        <f>AA19-AA23</f>
+      </c>
+      <c r="AG24">
+        <f>AG19*0.6</f>
+      </c>
+      <c r="AM24">
+        <f>AM28+AN18</f>
+      </c>
+      <c r="AP24">
+        <f>AP20-AP23</f>
+      </c>
+      <c r="BB24">
+        <f>BB20-BB23</f>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <f>I20*0.6</f>
+      </c>
+      <c r="AM25">
+        <f>AM20*0.6</f>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26">
+        <f>I25-I23</f>
+      </c>
+      <c r="AM26">
+        <f>AM25-AM23</f>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27">
+        <f>I26*0.15</f>
+      </c>
+      <c r="AM27">
+        <f>AM26*0.15</f>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28">
+        <f>I20-I23</f>
+      </c>
+      <c r="AM28">
+        <f>AM20-AM27</f>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <f>C24+D18</f>
+      </c>
+      <c r="I29">
+        <f>I24+J18</f>
+      </c>
+      <c r="L29">
+        <f>L24+M18</f>
+      </c>
+      <c r="O29">
+        <f>O24+P18</f>
+      </c>
+      <c r="R29">
+        <f>R24+S18</f>
+      </c>
+      <c r="X29">
+        <f>X24+Y18</f>
+      </c>
+      <c r="AA29">
+        <f>AA24+AB18</f>
+      </c>
+      <c r="AM29">
+        <f>AM24+AN18</f>
+      </c>
+      <c r="AP29">
+        <f>AP24+AQ18</f>
+      </c>
+      <c r="BB29">
+        <f>BB24+BC18</f>
+      </c>
+    </row>
     <row r="30">
       <c r="C30" t="s">
         <v>0</v>
@@ -6383,6 +6555,168 @@
         <f>BE47*10/100</f>
       </c>
     </row>
+    <row r="51"/>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52">
+        <f>C49*0.5</f>
+      </c>
+      <c r="I52">
+        <f>800</f>
+      </c>
+      <c r="L52">
+        <f>L48*0.6</f>
+      </c>
+      <c r="O52">
+        <f>O49*60</f>
+      </c>
+      <c r="R52">
+        <f>R48*0.6</f>
+      </c>
+      <c r="U52">
+        <f>500</f>
+      </c>
+      <c r="X52">
+        <f>X48*0.6</f>
+      </c>
+      <c r="AA52">
+        <f>AA48*0.6</f>
+      </c>
+      <c r="AD52">
+        <f>500</f>
+      </c>
+      <c r="AJ52">
+        <f>800</f>
+      </c>
+      <c r="AM52">
+        <f>900</f>
+      </c>
+      <c r="AP52">
+        <f>AP49*0.6</f>
+      </c>
+      <c r="BB52">
+        <f>BB49*0.6</f>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53">
+        <f>C49-C52</f>
+      </c>
+      <c r="I53">
+        <f>I57-I56</f>
+      </c>
+      <c r="L53">
+        <f>L48-L52</f>
+      </c>
+      <c r="O53">
+        <f>O49-O52</f>
+      </c>
+      <c r="R53">
+        <f>R48-R52</f>
+      </c>
+      <c r="X53">
+        <f>X48-X52</f>
+      </c>
+      <c r="AA53">
+        <f>AA48-AA52</f>
+      </c>
+      <c r="AG53">
+        <f>AG48*0.6</f>
+      </c>
+      <c r="AM53">
+        <f>AM57+AN47</f>
+      </c>
+      <c r="AP53">
+        <f>AP49-AP52</f>
+      </c>
+      <c r="BB53">
+        <f>BB49-BB52</f>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54">
+        <f>I49*0.6</f>
+      </c>
+      <c r="AM54">
+        <f>AM49*0.6</f>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55">
+        <f>I54-I52</f>
+      </c>
+      <c r="AM55">
+        <f>AM54-AM52</f>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56">
+        <f>I55*0.15</f>
+      </c>
+      <c r="AM56">
+        <f>AM55*0.15</f>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57">
+        <f>I49-I52</f>
+      </c>
+      <c r="AM57">
+        <f>AM49-AM56</f>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <f>C53+D47</f>
+      </c>
+      <c r="I58">
+        <f>I53+J47</f>
+      </c>
+      <c r="L58">
+        <f>L53+M47</f>
+      </c>
+      <c r="O58">
+        <f>O53+P47</f>
+      </c>
+      <c r="R58">
+        <f>R53+S47</f>
+      </c>
+      <c r="X58">
+        <f>X53+Y47</f>
+      </c>
+      <c r="AA58">
+        <f>AA53+AB47</f>
+      </c>
+      <c r="AM58">
+        <f>AM53+AN47</f>
+      </c>
+      <c r="AP58">
+        <f>AP53+AQ47</f>
+      </c>
+      <c r="BB58">
+        <f>BB53+BC47</f>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
